--- a/models/sft/pcs/parameters.xlsx
+++ b/models/sft/pcs/parameters.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
-    <sheet name="Properties" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -38,9 +37,6 @@
   </si>
   <si>
     <t>inverse</t>
-  </si>
-  <si>
-    <t>failed</t>
   </si>
   <si>
     <t>V1DM_M</t>
@@ -385,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,7 +406,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -428,7 +424,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -446,7 +442,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -464,7 +460,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -482,7 +478,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -500,7 +496,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -518,7 +514,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -536,7 +532,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -575,151 +571,6 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2.5</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
